--- a/Zeeslag.xlsx
+++ b/Zeeslag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5595324f3920d397/ZeeslagTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_AD4D7A0C205A6B9A452FA85EAFDF47D45BDEDD79" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42822B1E-3870-4283-8C94-683C7C31988A}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_AD4D7A0C205A6B9A452FA85EAFDF47D45BDEDD79" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DD6465F-20CF-4502-9D6A-468A020D9764}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -395,23 +395,75 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2">
+        <v>42</v>
+      </c>
+      <c r="E2">
+        <v>39</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="e">
+      <c r="B3">
         <f>AVERAGE(D:D)</f>
-        <v>#DIV/0!</v>
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="e">
+      <c r="B4">
         <f>AVERAGE(E:E)</f>
-        <v>#DIV/0!</v>
+        <v>42.909090909090907</v>
+      </c>
+      <c r="E4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
